--- a/src/main/resources/xlsx/cadre/cadre_company_statByType.xlsx
+++ b/src/main/resources/xlsx/cadre/cadre_company_statByType.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8226F0B8-E1AF-4029-93EE-1CF200C38055}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8151D8B-2AF2-4F70-8104-044F0724EEB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="按照类别统计" sheetId="2" r:id="rId1"/>
+    <sheet name="按照类别统计(7个兼职类型）" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="22">
   <si>
     <t>兼职类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -337,11 +338,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -355,49 +367,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -682,11 +703,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" customWidth="1"/>
@@ -694,97 +715,97 @@
     <col min="17" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16" ht="43.15" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-    </row>
-    <row r="2" spans="1:16" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+    </row>
+    <row r="2" spans="1:16" ht="31.15" customHeight="1">
+      <c r="A2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+    </row>
+    <row r="3" spans="1:16" ht="31.9" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="10" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="18"/>
+    </row>
+    <row r="4" spans="1:16" ht="43.15" customHeight="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
+    </row>
+    <row r="5" spans="1:16" ht="30.6" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
@@ -822,11 +843,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:16" ht="34.9" customHeight="1">
+      <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -842,8 +863,8 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:16" ht="34.9" customHeight="1">
+      <c r="A7" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -864,8 +885,8 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:16" ht="34.9" customHeight="1">
+      <c r="A8" s="16"/>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -884,8 +905,8 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:16" ht="34.9" customHeight="1">
+      <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
@@ -904,8 +925,8 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:16" ht="34.9" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -926,8 +947,8 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+    <row r="11" spans="1:16" ht="34.9" customHeight="1">
+      <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
@@ -946,8 +967,8 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:16" ht="34.9" customHeight="1">
+      <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -968,8 +989,8 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:16" ht="34.9" customHeight="1">
+      <c r="A13" s="8"/>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
@@ -988,8 +1009,8 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+    <row r="14" spans="1:16" ht="34.9" customHeight="1">
+      <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1008,28 +1029,33 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:16" ht="32.450000000000003" customHeight="1">
+      <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="E3:P3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:P15"/>
@@ -1043,11 +1069,421 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="E3:P3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>第 &amp;P 页，共 &amp;N 页</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0201B8-F9D6-4019-925A-8BC1FF8CA997}">
+  <dimension ref="A1:R15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="4" width="7.5" style="1" customWidth="1"/>
+    <col min="5" max="18" width="6.5" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="43.15" customHeight="1">
+      <c r="A1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+    </row>
+    <row r="2" spans="1:18" ht="31.15" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+    </row>
+    <row r="3" spans="1:18" ht="31.9" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="18"/>
+    </row>
+    <row r="4" spans="1:18" ht="43.15" customHeight="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="18"/>
+    </row>
+    <row r="5" spans="1:18" ht="30.6" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="34.9" customHeight="1">
+      <c r="A6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" ht="34.9" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" ht="34.9" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" ht="34.9" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" ht="34.9" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" ht="34.9" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" ht="34.9" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" ht="34.9" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" ht="34.9" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" ht="32.450000000000003" customHeight="1">
+      <c r="A15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:B5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:R3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/cadre/cadre_company_statByType.xlsx
+++ b/src/main/resources/xlsx/cadre/cadre_company_statByType.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8151D8B-2AF2-4F70-8104-044F0724EEB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151D8BB4-7C72-4CC5-8F21-9FDB3FCB11A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="按照类别统计" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
   <si>
     <t>兼职类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,23 +75,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机关部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学部院系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附属单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按单位类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明：机关部门包括机关职能部处、机关党委、直属单位、教辅单位、经营性单位。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -172,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -254,17 +238,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -373,53 +346,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -716,96 +689,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="43.15" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" ht="31.15" customHeight="1">
-      <c r="A2" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" ht="31.9" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="18"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="43.15" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16" ht="30.6" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
@@ -844,10 +817,10 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="34.9" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -864,8 +837,8 @@
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16" ht="34.9" customHeight="1">
-      <c r="A7" s="16" t="s">
-        <v>17</v>
+      <c r="A7" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -886,7 +859,7 @@
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16" ht="34.9" customHeight="1">
-      <c r="A8" s="16"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -906,7 +879,7 @@
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16" ht="34.9" customHeight="1">
-      <c r="A9" s="16"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
@@ -926,8 +899,8 @@
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16" ht="34.9" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>18</v>
+      <c r="A10" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
@@ -948,9 +921,9 @@
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" ht="34.9" customHeight="1">
-      <c r="A11" s="7"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -969,11 +942,9 @@
     </row>
     <row r="12" spans="1:16" ht="34.9" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -989,76 +960,28 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" ht="34.9" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-    </row>
-    <row r="14" spans="1:16" ht="34.9" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-    </row>
-    <row r="15" spans="1:16" ht="32.450000000000003" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
+    <row r="13" spans="1:16" ht="32.450000000000003" customHeight="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="E3:P3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
+  <mergeCells count="17">
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="A13:P13"/>
     <mergeCell ref="A3:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:A9"/>
@@ -1069,6 +992,11 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="E3:P3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1082,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0201B8-F9D6-4019-925A-8BC1FF8CA997}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1098,104 +1026,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="43.15" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" ht="31.15" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
+      <c r="A2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="1:18" ht="31.9" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="18"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="11"/>
     </row>
     <row r="4" spans="1:18" ht="43.15" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="18"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="11"/>
     </row>
     <row r="5" spans="1:18" ht="30.6" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1240,10 +1168,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="34.9" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1262,8 +1190,8 @@
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" ht="34.9" customHeight="1">
-      <c r="A7" s="16" t="s">
-        <v>17</v>
+      <c r="A7" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
@@ -1286,7 +1214,7 @@
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:18" ht="34.9" customHeight="1">
-      <c r="A8" s="16"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -1308,7 +1236,7 @@
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18" ht="34.9" customHeight="1">
-      <c r="A9" s="16"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1330,8 +1258,8 @@
       <c r="R9" s="4"/>
     </row>
     <row r="10" spans="1:18" ht="34.9" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>18</v>
+      <c r="A10" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
@@ -1354,9 +1282,9 @@
       <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:18" ht="34.9" customHeight="1">
-      <c r="A11" s="7"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1377,11 +1305,9 @@
     </row>
     <row r="12" spans="1:18" ht="34.9" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1399,78 +1325,26 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="34.9" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" ht="34.9" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" ht="32.450000000000003" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
+    <row r="13" spans="1:18" ht="32.450000000000003" customHeight="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
+  <mergeCells count="18">
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:A9"/>
@@ -1484,6 +1358,11 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:P13"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
